--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Protean eGov Technologies Ltd/Pruned_Excel/Final_Parameters/Protean eGov Technologies Ltd_Cleaned_Data.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Protean eGov Technologies Ltd/Pruned_Excel/Final_Parameters/Protean eGov Technologies Ltd_Cleaned_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="169">
   <si>
     <t>Balance Sheet of Protean eGov Technologies(in Rs. Cr.)</t>
   </si>
@@ -317,6 +317,9 @@
     <t>P/l before exceptional items &amp; tax</t>
   </si>
   <si>
+    <t>Exceptional items</t>
+  </si>
+  <si>
     <t>P/l before tax</t>
   </si>
   <si>
@@ -390,6 +393,9 @@
   </si>
   <si>
     <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Exceptional Items</t>
   </si>
   <si>
     <t>P/L Before Tax</t>
@@ -1881,13 +1887,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -1948,19 +1954,22 @@
       <c r="T1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
         <v>94</v>
@@ -1969,51 +1978,54 @@
         <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
         <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="N2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>132</v>
+      </c>
+      <c r="U2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>175.67</v>
@@ -2045,37 +2057,37 @@
       <c r="K3">
         <v>38.46</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>38.46</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>9.470000000000001</v>
-      </c>
-      <c r="N3">
-        <v>28.99</v>
       </c>
       <c r="O3">
         <v>28.99</v>
       </c>
       <c r="P3">
+        <v>28.99</v>
+      </c>
+      <c r="Q3">
         <v>40.39</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>7.18</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>7.17</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>7.18</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>7.17</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>177.6</v>
@@ -2107,37 +2119,37 @@
       <c r="K4">
         <v>34.95</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>34.95</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8.720000000000001</v>
-      </c>
-      <c r="N4">
-        <v>26.23</v>
       </c>
       <c r="O4">
         <v>26.23</v>
       </c>
       <c r="P4">
+        <v>26.23</v>
+      </c>
+      <c r="Q4">
         <v>40.39</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>6.5</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>6.48</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>6.5</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>6.48</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>156.75</v>
@@ -2169,31 +2181,31 @@
       <c r="K5">
         <v>27.13</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>27.13</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5.88</v>
-      </c>
-      <c r="N5">
-        <v>21.25</v>
       </c>
       <c r="O5">
         <v>21.25</v>
       </c>
       <c r="P5">
+        <v>21.25</v>
+      </c>
+      <c r="Q5">
         <v>40.39</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>5.26</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>5.26</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>220.17</v>
@@ -2225,31 +2237,31 @@
       <c r="K6">
         <v>42.5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>42.5</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>9.51</v>
-      </c>
-      <c r="N6">
-        <v>32.99</v>
       </c>
       <c r="O6">
         <v>32.99</v>
       </c>
       <c r="P6">
+        <v>32.99</v>
+      </c>
+      <c r="Q6">
         <v>40.45</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>8.16</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>8.16</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>231.72</v>
@@ -2281,37 +2293,37 @@
       <c r="K7">
         <v>40.39</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>40.39</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>9.289999999999999</v>
-      </c>
-      <c r="N7">
-        <v>31.1</v>
       </c>
       <c r="O7">
         <v>31.1</v>
       </c>
       <c r="P7">
+        <v>31.1</v>
+      </c>
+      <c r="Q7">
         <v>40.42</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>7.69</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7.7</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>7.69</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>7.7</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>203.37</v>
@@ -2343,37 +2355,37 @@
       <c r="K8">
         <v>19.55</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>19.55</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4.12</v>
-      </c>
-      <c r="N8">
-        <v>15.43</v>
       </c>
       <c r="O8">
         <v>15.43</v>
       </c>
       <c r="P8">
+        <v>15.43</v>
+      </c>
+      <c r="Q8">
         <v>40.45</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>3.81</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>3.73</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>3.81</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3.73</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>235.41</v>
@@ -2405,37 +2417,37 @@
       <c r="K9">
         <v>44.17</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>44.17</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>10.5</v>
-      </c>
-      <c r="N9">
-        <v>33.67</v>
       </c>
       <c r="O9">
         <v>33.67</v>
       </c>
       <c r="P9">
+        <v>33.67</v>
+      </c>
+      <c r="Q9">
         <v>40.45</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8.33</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>8.300000000000001</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>8.33</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>219.46</v>
@@ -2467,37 +2479,37 @@
       <c r="K10">
         <v>40.05</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>40.05</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>9.529999999999999</v>
-      </c>
-      <c r="N10">
-        <v>30.52</v>
       </c>
       <c r="O10">
         <v>30.52</v>
       </c>
       <c r="P10">
+        <v>30.52</v>
+      </c>
+      <c r="Q10">
         <v>40.54</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>7.54</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>7.47</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>7.54</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>7.47</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11">
         <v>196.19</v>
@@ -2529,23 +2541,20 @@
       <c r="K11">
         <v>27.72</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>27.72</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6.01</v>
-      </c>
-      <c r="N11">
-        <v>21.71</v>
       </c>
       <c r="O11">
         <v>21.71</v>
       </c>
       <c r="P11">
+        <v>21.71</v>
+      </c>
+      <c r="Q11">
         <v>40.45</v>
-      </c>
-      <c r="Q11">
-        <v>5.37</v>
       </c>
       <c r="R11">
         <v>5.37</v>
@@ -2556,10 +2565,13 @@
       <c r="T11">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12">
         <v>221.86</v>
@@ -2591,31 +2603,31 @@
       <c r="K12">
         <v>24.7</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>24.7</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4.22</v>
-      </c>
-      <c r="N12">
-        <v>20.48</v>
       </c>
       <c r="O12">
         <v>20.48</v>
       </c>
       <c r="P12">
+        <v>20.48</v>
+      </c>
+      <c r="Q12">
         <v>40.45</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>5.06</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>5.04</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>5.06</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>5.04</v>
       </c>
     </row>
@@ -2634,114 +2646,114 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="R2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:18">
